--- a/保险数据字典2.xlsx
+++ b/保险数据字典2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2745" windowWidth="17040" windowHeight="4950"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="557">
   <si>
     <t>INT(10)</t>
   </si>
@@ -1111,10 +1111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被保人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2167,6 +2163,34 @@
   </si>
   <si>
     <t>费用代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceiptInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票明细ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiptid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被保险人序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2174,7 +2198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2213,8 +2237,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2248,6 +2290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2302,7 +2350,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2350,6 +2398,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2654,10 +2711,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K316"/>
+  <dimension ref="A1:K320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2743,7 +2800,7 @@
         <v>246</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D6" s="4">
         <v>11</v>
@@ -2803,10 +2860,10 @@
         <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11" s="4">
         <v>21</v>
@@ -2839,13 +2896,13 @@
         <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2860,7 +2917,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -2875,31 +2932,31 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -2931,7 +2988,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
@@ -3007,7 +3064,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -3082,7 +3139,7 @@
         <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>191</v>
@@ -3122,7 +3179,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -3153,7 +3210,7 @@
         <v>190</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D37" s="4">
         <v>25</v>
@@ -3177,7 +3234,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1</v>
@@ -3205,20 +3262,20 @@
     </row>
     <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>1</v>
@@ -3259,40 +3316,40 @@
     </row>
     <row r="45" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E47" s="7"/>
     </row>
@@ -3324,7 +3381,7 @@
     </row>
     <row r="50" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>1</v>
@@ -3337,46 +3394,46 @@
     </row>
     <row r="51" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>1</v>
@@ -3402,20 +3459,20 @@
     </row>
     <row r="56" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>1</v>
@@ -3428,7 +3485,7 @@
     </row>
     <row r="58" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>1</v>
@@ -3441,14 +3498,14 @@
     </row>
     <row r="59" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E59" s="7"/>
     </row>
@@ -3467,7 +3524,7 @@
         <v>220</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D61" s="4">
         <v>27</v>
@@ -3506,7 +3563,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1</v>
@@ -3545,7 +3602,7 @@
         <v>221</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D67" s="4">
         <v>29</v>
@@ -3612,7 +3669,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
@@ -3638,7 +3695,7 @@
         <v>251</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D74" s="4">
         <v>31</v>
@@ -3664,7 +3721,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>0</v>
@@ -3679,7 +3736,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>0</v>
@@ -3694,7 +3751,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1</v>
@@ -3765,7 +3822,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>0</v>
@@ -3774,7 +3831,7 @@
         <v>36</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E83" s="2"/>
     </row>
@@ -3981,14 +4038,14 @@
         <v>1</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
-        <v>285</v>
+      <c r="D99" s="16" t="s">
+        <v>556</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>0</v>
@@ -3997,20 +4054,20 @@
         <v>36</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E101" s="2"/>
     </row>
@@ -4026,10 +4083,10 @@
         <v>43</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D103" s="4">
         <v>43</v>
@@ -4053,16 +4110,16 @@
         <v>38</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>0</v>
@@ -4071,14 +4128,14 @@
         <v>36</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>0</v>
@@ -4087,16 +4144,16 @@
         <v>34</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E106" s="12" t="s">
         <v>533</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>534</v>
       </c>
       <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>0</v>
@@ -4105,16 +4162,16 @@
         <v>34</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>26</v>
@@ -4123,14 +4180,14 @@
         <v>34</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>0</v>
@@ -4139,64 +4196,64 @@
         <v>34</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F110" s="14"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F111" s="14"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F112" s="14"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>165</v>
@@ -4205,30 +4262,30 @@
         <v>34</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="14"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="14"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>0</v>
@@ -4237,14 +4294,14 @@
         <v>34</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>0</v>
@@ -4253,21 +4310,21 @@
         <v>34</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="14"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="14"/>
@@ -4284,10 +4341,10 @@
         <v>43</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D119" s="4">
         <v>43</v>
@@ -4305,16 +4362,16 @@
         <v>38</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>0</v>
@@ -4330,7 +4387,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>0</v>
@@ -4339,30 +4396,30 @@
         <v>34</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="13"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="18"/>
       <c r="F123" s="13"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>0</v>
@@ -4371,23 +4428,23 @@
         <v>34</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F124" s="13"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="13"/>
@@ -4403,14 +4460,14 @@
         <v>36</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="13"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>0</v>
@@ -4419,16 +4476,16 @@
         <v>34</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="F127" s="13"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>26</v>
@@ -4437,14 +4494,14 @@
         <v>34</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="13"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>26</v>
@@ -4453,14 +4510,14 @@
         <v>34</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="13"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>26</v>
@@ -4469,14 +4526,14 @@
         <v>34</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="13"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>26</v>
@@ -4485,14 +4542,14 @@
         <v>34</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="13"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>0</v>
@@ -4501,32 +4558,32 @@
         <v>34</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="F132" s="13"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F133" s="13"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>302</v>
+        <v>537</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>165</v>
@@ -4534,16 +4591,17 @@
       <c r="C134" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D134" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>508</v>
+      <c r="D134" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="15" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
-        <v>303</v>
+        <v>538</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>165</v>
@@ -4551,16 +4609,15 @@
       <c r="C135" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D135" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>508</v>
-      </c>
+      <c r="D135" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="15"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>304</v>
+        <v>539</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>165</v>
@@ -4568,36 +4625,32 @@
       <c r="C136" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D136" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>508</v>
-      </c>
+      <c r="D136" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="15"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>510</v>
+        <v>301</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>511</v>
+        <v>34</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F137" s="14" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
-        <v>512</v>
+        <v>302</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>165</v>
@@ -4605,135 +4658,137 @@
       <c r="C138" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" s="14"/>
+      <c r="D138" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" s="7" t="s">
-        <v>513</v>
+      <c r="A139" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" s="14"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>516</v>
-      </c>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="14"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" s="14"/>
+    </row>
+    <row r="141" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D141" s="4">
+        <v>43</v>
+      </c>
+      <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>518</v>
+        <v>189</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142" s="14"/>
+      <c r="F142" s="1"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" s="7" t="s">
-        <v>521</v>
+      <c r="A143" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C143" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D143" s="2" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="E143" s="2"/>
-      <c r="F143" s="14"/>
+      <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" s="14"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2" t="s">
-        <v>528</v>
+      <c r="D145" s="16" t="s">
+        <v>550</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="14"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A146" s="2" t="s">
-        <v>526</v>
+      <c r="A146" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C146" s="2"/>
       <c r="D146" s="2" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>165</v>
@@ -4742,32 +4797,28 @@
         <v>34</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="E147" s="2"/>
-      <c r="F147" s="15" t="s">
-        <v>544</v>
-      </c>
+      <c r="F147" s="14"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A148" s="2" t="s">
-        <v>539</v>
+      <c r="A148" s="7" t="s">
+        <v>516</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="E148" s="2"/>
-      <c r="F148" s="15"/>
+      <c r="F148" s="14"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>165</v>
@@ -4776,248 +4827,250 @@
         <v>34</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="E149" s="2"/>
-      <c r="F149" s="15"/>
+      <c r="F149" s="14"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
+      <c r="A150" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>506</v>
+      </c>
       <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="D150" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="E150" s="2"/>
+      <c r="F150" s="14"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A151" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D151" s="4">
-        <v>51</v>
-      </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
+      <c r="A151" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="14"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A152" s="2" t="s">
-        <v>189</v>
+      <c r="A152" s="7" t="s">
+        <v>524</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
-        <v>313</v>
+        <v>527</v>
       </c>
       <c r="E152" s="2"/>
+      <c r="F152" s="14"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>463</v>
+        <v>165</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="E153" s="2"/>
+      <c r="F153" s="14"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A154" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>462</v>
-      </c>
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="2" t="s">
-        <v>550</v>
-      </c>
+      <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
+      <c r="A155" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D155" s="4">
+        <v>51</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A156" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D156" s="4">
-        <v>43</v>
-      </c>
-      <c r="E156" s="4"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
+      <c r="A156" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E156" s="2"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>189</v>
+        <v>546</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A160" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A158" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A159" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A160" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>356</v>
-      </c>
+      <c r="D160" s="4">
+        <v>43</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>317</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E161" s="2"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A162" s="2" t="s">
-        <v>320</v>
+      <c r="A162" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="E162" s="2"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E164" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C165" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D165" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E165" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>165</v>
@@ -5026,13 +5079,13 @@
         <v>34</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E166" s="2"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>165</v>
@@ -5041,13 +5094,13 @@
         <v>34</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E167" s="2"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>165</v>
@@ -5056,26 +5109,26 @@
         <v>34</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E168" s="2"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E169" s="2"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>165</v>
@@ -5084,26 +5137,28 @@
         <v>34</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E170" s="2"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D171" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E171" s="2"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>165</v>
@@ -5112,71 +5167,69 @@
         <v>34</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E172" s="2"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E173" s="2"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D174" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>347</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E174" s="2"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C175" s="2"/>
       <c r="D175" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E175" s="2"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C176" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D176" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>165</v>
@@ -5185,266 +5238,266 @@
         <v>34</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E177" s="2"/>
-      <c r="F177"/>
-      <c r="G177"/>
-      <c r="H177"/>
-      <c r="I177"/>
-      <c r="J177"/>
-      <c r="K177"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E178" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
+      <c r="A179" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="E179" s="2"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A180" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D180" s="4">
-        <v>51</v>
-      </c>
-      <c r="E180" s="4"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="E181" s="2"/>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181"/>
+      <c r="K181"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="E182" s="2"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A183" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>462</v>
-      </c>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="2" t="s">
-        <v>368</v>
-      </c>
+      <c r="D183" s="2"/>
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A184" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D184" s="4">
+        <v>51</v>
+      </c>
+      <c r="E184" s="4"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
-        <v>374</v>
+        <v>189</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D185" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F185"/>
-      <c r="G185"/>
-      <c r="H185"/>
-      <c r="I185"/>
-      <c r="J185"/>
-      <c r="K185"/>
+        <v>312</v>
+      </c>
+      <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189"/>
+      <c r="J189"/>
+      <c r="K189"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A190" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A188" s="4" t="s">
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A192" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B192" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D188" s="4">
+      <c r="D192" s="4">
         <v>43</v>
       </c>
-      <c r="E188" s="4"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A189" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A190" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A191" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A192" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E192" s="2"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
-        <v>431</v>
+        <v>189</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>432</v>
+        <v>312</v>
       </c>
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A194" s="2" t="s">
-        <v>433</v>
+      <c r="A194" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C194" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D194" s="2" t="s">
-        <v>434</v>
+        <v>293</v>
       </c>
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>165</v>
@@ -5453,13 +5506,13 @@
         <v>34</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>165</v>
@@ -5468,1757 +5521,1749 @@
         <v>34</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E196" s="2"/>
-      <c r="F196"/>
-      <c r="G196"/>
-      <c r="H196"/>
-      <c r="I196"/>
-      <c r="J196"/>
-      <c r="K196"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
-        <v>338</v>
+        <v>430</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C197" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D197" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
+      <c r="A198" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
+      <c r="D198" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A199" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D199" s="4">
-        <v>51</v>
-      </c>
-      <c r="E199" s="4"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
-        <v>189</v>
+        <v>436</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>313</v>
+        <v>437</v>
       </c>
       <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1</v>
+        <v>438</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A203" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D203" s="4">
+        <v>51</v>
+      </c>
+      <c r="E203" s="4"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A204" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E205" s="2"/>
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
+      <c r="K205"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A208" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E201" s="2"/>
-      <c r="F201"/>
-      <c r="G201"/>
-      <c r="H201"/>
-      <c r="I201"/>
-      <c r="J201"/>
-      <c r="K201"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A202" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A204" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D204" s="4">
+      <c r="D208" s="4">
         <v>49</v>
       </c>
-      <c r="E204" s="4"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A205" s="2" t="s">
+      <c r="E208" s="4"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A209" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C205" s="2" t="s">
+      <c r="B209" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D205" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C206" s="2" t="s">
+      <c r="D209" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E206" s="2"/>
-      <c r="F206"/>
-      <c r="G206"/>
-      <c r="H206"/>
-      <c r="I206"/>
-      <c r="J206"/>
-      <c r="K206"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A207" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A209" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D209" s="4">
-        <v>51</v>
-      </c>
-      <c r="E209" s="4"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A210" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="E210" s="2"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A212" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="2" t="s">
-        <v>382</v>
-      </c>
+      <c r="D212" s="2"/>
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A213" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E213" s="2"/>
+      <c r="A213" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D213" s="4">
+        <v>51</v>
+      </c>
+      <c r="E213" s="4"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
-        <v>383</v>
+        <v>189</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C214" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D214" s="2" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2" t="s">
-        <v>391</v>
+        <v>162</v>
       </c>
       <c r="E217" s="2"/>
-      <c r="F217"/>
-      <c r="G217"/>
-      <c r="H217"/>
-      <c r="I217"/>
-      <c r="J217"/>
-      <c r="K217"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
+      <c r="A219" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
+      <c r="D219" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A220" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D220" s="4">
-        <v>81</v>
-      </c>
-      <c r="E220" s="4"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A220" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
-        <v>94</v>
+        <v>387</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C221" s="2"/>
       <c r="D221" s="2" t="s">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="E221" s="2"/>
+      <c r="F221"/>
+      <c r="G221"/>
+      <c r="H221"/>
+      <c r="I221"/>
+      <c r="J221"/>
+      <c r="K221"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>95</v>
+        <v>388</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2" t="s">
-        <v>96</v>
+        <v>391</v>
       </c>
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A223" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
       <c r="C223" s="2"/>
-      <c r="D223" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="D223" s="2"/>
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A224" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E224" s="2"/>
+      <c r="A224" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D224" s="4">
+        <v>81</v>
+      </c>
+      <c r="E224" s="4"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C227" s="2"/>
       <c r="D227" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C228" s="2"/>
       <c r="D228" s="2" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C230" s="2"/>
       <c r="D230" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E231" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C233" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D233" s="2" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C234" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D234" s="2" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C235" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D235" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E235" s="2"/>
-      <c r="F235"/>
-      <c r="G235"/>
-      <c r="H235"/>
-      <c r="I235"/>
-      <c r="J235"/>
-      <c r="K235"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C236" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D236" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
+      <c r="A237" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
+      <c r="D237" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A238" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D238" s="4">
-        <v>81</v>
-      </c>
-      <c r="E238" s="4"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A238" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C239" s="2"/>
       <c r="D239" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E239" s="2"/>
+      <c r="F239"/>
+      <c r="G239"/>
+      <c r="H239"/>
+      <c r="I239"/>
+      <c r="J239"/>
+      <c r="K239"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A242" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D242" s="4">
+        <v>81</v>
+      </c>
+      <c r="E242" s="4"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A243" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A244" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A241" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A242" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A243" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A244" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C244" s="2"/>
+      <c r="C244" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D244" s="2" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C247" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A248" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A249" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A248" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E248" s="2"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A249" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D249" s="2" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="E249" s="2"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D250" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A251" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E251" s="2"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A252" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A253" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A254" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A251" s="2" t="s">
+      <c r="E254" s="2"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A255" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C251" s="2" t="s">
+      <c r="B255" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D255" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A252" s="2" t="s">
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A256" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C252" s="2" t="s">
+      <c r="B256" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D256" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E252" s="2" t="s">
+      <c r="E256" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A253" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E253" s="2"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A254" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A255" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A256" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C257" s="2"/>
       <c r="D257" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C258" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D258" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E258" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C259" s="2"/>
+      <c r="C259" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D259" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C263" s="2"/>
       <c r="D263" s="2" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C264" s="2"/>
       <c r="D264" s="2" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C266" s="2"/>
       <c r="D266" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C267" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D267" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F268"/>
-      <c r="G268"/>
-      <c r="H268"/>
-      <c r="I268"/>
-      <c r="J268"/>
-      <c r="K268"/>
+        <v>114</v>
+      </c>
+      <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-      <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
-      <c r="I271" s="1"/>
-      <c r="J271" s="1"/>
-      <c r="K271" s="1"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A272" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D272" s="4">
-        <v>85</v>
-      </c>
-      <c r="E272" s="4"/>
+      <c r="A271" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F272"/>
+      <c r="G272"/>
+      <c r="H272"/>
+      <c r="I272"/>
+      <c r="J272"/>
+      <c r="K272"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E273" s="2"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A274" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A275" s="3"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A276" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D276" s="4">
+        <v>85</v>
+      </c>
+      <c r="E276" s="4"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A277" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C273" s="2" t="s">
+      <c r="B277" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D277" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E273" s="2"/>
-    </row>
-    <row r="274" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="2" t="s">
+      <c r="E277" s="2"/>
+    </row>
+    <row r="278" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C274" s="2" t="s">
+      <c r="B278" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D278" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E274" s="2"/>
-      <c r="F274"/>
-      <c r="G274"/>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274"/>
-      <c r="K274"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A275" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E275" s="2"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A276" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E276" s="2"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
-      <c r="H277" s="1"/>
-      <c r="I277" s="1"/>
-      <c r="J277" s="1"/>
-      <c r="K277" s="1"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A278" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D278" s="4">
-        <v>83</v>
-      </c>
-      <c r="E278" s="4"/>
+      <c r="E278" s="2"/>
+      <c r="F278"/>
+      <c r="G278"/>
+      <c r="H278"/>
+      <c r="I278"/>
+      <c r="J278"/>
+      <c r="K278"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C280" s="2"/>
       <c r="D280" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E280" s="2"/>
     </row>
-    <row r="281" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E281" s="2"/>
-      <c r="F281"/>
-      <c r="G281"/>
-      <c r="H281"/>
-      <c r="I281"/>
-      <c r="J281"/>
-      <c r="K281"/>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A282" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="A282" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D282" s="4">
+        <v>83</v>
+      </c>
+      <c r="E282" s="4"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C283" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D283" s="2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
-      <c r="I284" s="1"/>
-      <c r="J284" s="1"/>
-      <c r="K284" s="1"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A285" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D285" s="4">
-        <v>51</v>
-      </c>
-      <c r="E285" s="4"/>
+      <c r="A284" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E285" s="2"/>
+      <c r="F285"/>
+      <c r="G285"/>
+      <c r="H285"/>
+      <c r="I285"/>
+      <c r="J285"/>
+      <c r="K285"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E286" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A288" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E288" s="2"/>
-    </row>
-    <row r="289" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E289" s="2"/>
-      <c r="F289"/>
-      <c r="G289"/>
-      <c r="H289"/>
-      <c r="I289"/>
-      <c r="J289"/>
-      <c r="K289"/>
-    </row>
-    <row r="290" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A289" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D289" s="4">
+        <v>51</v>
+      </c>
+      <c r="E289" s="4"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C290" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D290" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="E290" s="2"/>
-      <c r="F290"/>
-      <c r="G290"/>
-      <c r="H290"/>
-      <c r="I290"/>
-      <c r="J290"/>
-      <c r="K290"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C291" s="2"/>
       <c r="D291" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E291" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C292" s="2"/>
       <c r="D292" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E292" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F292" s="3"/>
-      <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
-      <c r="I292" s="3"/>
-      <c r="J292" s="3"/>
-      <c r="K292" s="3"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F293" s="1"/>
-      <c r="G293" s="1"/>
-      <c r="H293" s="1"/>
-      <c r="I293" s="1"/>
-      <c r="J293" s="1"/>
-      <c r="K293" s="1"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A294" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D294" s="4">
-        <v>85</v>
-      </c>
-      <c r="E294" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E292" s="2"/>
+    </row>
+    <row r="293" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E293" s="2"/>
+      <c r="F293"/>
+      <c r="G293"/>
+      <c r="H293"/>
+      <c r="I293"/>
+      <c r="J293"/>
+      <c r="K293"/>
+    </row>
+    <row r="294" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E294" s="2"/>
+      <c r="F294"/>
+      <c r="G294"/>
+      <c r="H294"/>
+      <c r="I294"/>
+      <c r="J294"/>
+      <c r="K294"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E295" s="2"/>
-    </row>
-    <row r="296" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F296"/>
-      <c r="G296"/>
-      <c r="H296"/>
-      <c r="I296"/>
-      <c r="J296"/>
-      <c r="K296"/>
-    </row>
-    <row r="297" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E297" s="2"/>
-      <c r="F297"/>
-      <c r="G297"/>
-      <c r="H297"/>
-      <c r="I297"/>
-      <c r="J297"/>
-      <c r="K297"/>
+        <v>146</v>
+      </c>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A298" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E298" s="2"/>
+      <c r="A298" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D298" s="4">
+        <v>85</v>
+      </c>
+      <c r="E298" s="4"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C299" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D299" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E299" s="2"/>
-      <c r="F299" s="3"/>
-      <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
-      <c r="I299" s="3"/>
-      <c r="J299" s="3"/>
-      <c r="K299" s="3"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A300" s="3"/>
-      <c r="B300" s="3"/>
-      <c r="C300" s="3"/>
-      <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
-      <c r="H300" s="1"/>
-      <c r="I300" s="1"/>
-      <c r="J300" s="1"/>
-      <c r="K300" s="1"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A301" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D301" s="4">
-        <v>51</v>
-      </c>
-      <c r="E301" s="4"/>
-    </row>
-    <row r="302" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="300" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F300"/>
+      <c r="G300"/>
+      <c r="H300"/>
+      <c r="I300"/>
+      <c r="J300"/>
+      <c r="K300"/>
+    </row>
+    <row r="301" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E301" s="2"/>
+      <c r="F301"/>
+      <c r="G301"/>
+      <c r="H301"/>
+      <c r="I301"/>
+      <c r="J301"/>
+      <c r="K301"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="E302" s="2"/>
-      <c r="F302"/>
-      <c r="G302"/>
-      <c r="H302"/>
-      <c r="I302"/>
-      <c r="J302"/>
-      <c r="K302"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C303" s="2"/>
       <c r="D303" s="2" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E303" s="2"/>
+      <c r="F303" s="3"/>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A304" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E304" s="2"/>
+      <c r="A304" s="3"/>
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+      <c r="D304" s="3"/>
+      <c r="E304" s="3"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
+      <c r="K304" s="1"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F305" s="1"/>
-      <c r="G305" s="1"/>
-      <c r="H305" s="1"/>
-      <c r="I305" s="1"/>
-      <c r="J305" s="1"/>
-      <c r="K305" s="1"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A306" s="4" t="s">
+      <c r="A305" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B306" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D306" s="4">
-        <v>87</v>
-      </c>
-      <c r="E306" s="4"/>
+      <c r="B305" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D305" s="4">
+        <v>51</v>
+      </c>
+      <c r="E305" s="4"/>
+    </row>
+    <row r="306" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E306" s="2"/>
+      <c r="F306"/>
+      <c r="G306"/>
+      <c r="H306"/>
+      <c r="I306"/>
+      <c r="J306"/>
+      <c r="K306"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D307" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A309" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E309" s="2"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A310" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E310" s="2"/>
+      <c r="A310" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D310" s="4">
+        <v>87</v>
+      </c>
+      <c r="E310" s="4"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D311" s="2"/>
       <c r="E311" s="2"/>
     </row>
-    <row r="312" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E312" s="2"/>
-      <c r="F312"/>
-      <c r="G312"/>
-      <c r="H312"/>
-      <c r="I312"/>
-      <c r="J312"/>
-      <c r="K312"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>0</v>
@@ -7227,13 +7272,13 @@
         <v>34</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>0</v>
@@ -7242,33 +7287,99 @@
         <v>34</v>
       </c>
       <c r="D314" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E314" s="2"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A315" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E315" s="2"/>
+    </row>
+    <row r="316" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E316" s="2"/>
+      <c r="F316"/>
+      <c r="G316"/>
+      <c r="H316"/>
+      <c r="I316"/>
+      <c r="J316"/>
+      <c r="K316"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A317" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E317" s="2"/>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A318" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D318" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E314" s="2"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F315" s="1"/>
-      <c r="G315" s="1"/>
-      <c r="H315" s="1"/>
-      <c r="I315" s="1"/>
-      <c r="J315" s="1"/>
-      <c r="K315" s="1"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A316" s="4" t="s">
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1"/>
+      <c r="I319" s="1"/>
+      <c r="J319" s="1"/>
+      <c r="K319" s="1"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A320" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B316" s="4"/>
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F120:F133"/>
-    <mergeCell ref="F137:F146"/>
+    <mergeCell ref="F144:F153"/>
     <mergeCell ref="F104:F117"/>
-    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="F134:F136"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
